--- a/pred_ohlcv/54_21/2019-10-24 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 MXC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>6254462.677773146</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>6294462.677773146</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>6294462.677773146</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-34147430.31302685</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>34500426.37117315</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>34500426.37117315</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>30153165.37777315</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>30153165.37777315</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>159611609.3405403</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>158801962.7385404</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>158801962.7385404</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>158059831.0546404</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>158132760.3862793</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>157834837.9595792</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>157850461.0356792</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>157850471.0356792</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>157324883.9782792</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>157324883.9782792</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>157304883.9782792</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>155950142.9133793</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-24 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 MXC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>6254462.677773146</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>6294462.677773146</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>6294462.677773146</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-34147430.31302685</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>34500426.37117315</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>34500426.37117315</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>30153165.37777315</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>32906873.95937315</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>30228282.57697315</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>161593439.9623404</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>161593439.9623404</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>159611609.3405403</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>158801962.7385404</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>158801962.7385404</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>158059831.0546404</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>158132760.3862793</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>158465515.7938792</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>157834837.9595792</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>157850461.0356792</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>157324883.9782792</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>157324883.9782792</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>157304883.9782792</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>156975939.0853792</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>156152139.9133793</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>155950142.9133793</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
